--- a/Roles_autorizaciones.xlsx
+++ b/Roles_autorizaciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="25">
   <si>
     <t>Administador</t>
   </si>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +333,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,22 +363,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AL13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -655,109 +669,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
     </row>
     <row r="4" spans="2:38" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="17" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="17" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="17" t="s">
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="17" t="s">
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="17" t="s">
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="17" t="s">
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="17" t="s">
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="17" t="s">
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="17" t="s">
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="19"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="25"/>
     </row>
     <row r="5" spans="2:38" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -873,108 +887,112 @@
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL6" s="22" t="s">
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -985,113 +1003,113 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="S7" s="8"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="7" t="s">
+      <c r="U7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AB7" s="8"/>
       <c r="AC7" s="9"/>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="9"/>
-      <c r="AG7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="9"/>
+      <c r="AG7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="21"/>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="8" t="s">
+      <c r="O8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="9"/>
-      <c r="R8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="8" t="s">
+      <c r="R8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="T8" s="9"/>
-      <c r="U8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W8" s="9"/>
+      <c r="U8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="21"/>
       <c r="X8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1099,17 +1117,17 @@
         <v>17</v>
       </c>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AA8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE8" s="8" t="s">
+      <c r="AD8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="AF8" s="9"/>
@@ -1138,35 +1156,35 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="O9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="9"/>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="9"/>
+      <c r="U9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="21"/>
       <c r="X9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="7" t="s">
+      <c r="AA9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AB9" s="8"/>
@@ -1199,7 +1217,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="8"/>
@@ -1210,23 +1228,23 @@
       <c r="O10" s="7"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="9"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="21"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="7" t="s">
+      <c r="AA10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="9"/>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AE10" s="8"/>
@@ -1259,18 +1277,18 @@
       <c r="O11" s="7"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="9"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="7" t="s">
+      <c r="AA11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AB11" s="8"/>
@@ -1304,18 +1322,18 @@
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="S12" s="8"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="9"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="7" t="s">
+      <c r="AA12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="AB12" s="8"/>
@@ -1350,9 +1368,9 @@
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="12"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
@@ -1385,7 +1403,7 @@
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R4:T4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>